--- a/admin/timesheets/timesheet_template.xlsx
+++ b/admin/timesheets/timesheet_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailesuoo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailesuoo/Downloads/NASA-JPL-Capstone/admin/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E4E75-EA52-7F42-892A-E3A237D08C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6EECE0-9CC3-554C-8403-37F4F986B67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -65,30 +65,9 @@
     <t>Read/Study</t>
   </si>
   <si>
-    <t>Team Meting</t>
-  </si>
-  <si>
     <t>Sponsor Meeting</t>
   </si>
   <si>
-    <t>Task aaaaa</t>
-  </si>
-  <si>
-    <t>Task bbbbb</t>
-  </si>
-  <si>
-    <t>Task ccccc</t>
-  </si>
-  <si>
-    <t>Task xxxxxx</t>
-  </si>
-  <si>
-    <t>Task yyyyy</t>
-  </si>
-  <si>
-    <t>Task zzzzzz</t>
-  </si>
-  <si>
     <t>Tasks align with the project plan</t>
   </si>
   <si>
@@ -108,6 +87,12 @@
   </si>
   <si>
     <t>NASA JPL</t>
+  </si>
+  <si>
+    <t>TA meeting</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
   </si>
 </sst>
 </file>
@@ -516,7 +501,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,10 +527,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -584,25 +569,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="10">
-        <v>42029</v>
+        <v>45970</v>
       </c>
       <c r="C5" s="10">
-        <v>42030</v>
+        <v>45971</v>
       </c>
       <c r="D5" s="10">
-        <v>42031</v>
+        <v>45972</v>
       </c>
       <c r="E5" s="10">
-        <v>42032</v>
+        <v>45973</v>
       </c>
       <c r="F5" s="10">
-        <v>42033</v>
+        <v>45974</v>
       </c>
       <c r="G5" s="10">
-        <v>42034</v>
+        <v>45975</v>
       </c>
       <c r="H5" s="11">
-        <v>42035</v>
+        <v>45976</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>5</v>
@@ -642,7 +627,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -658,7 +643,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -674,7 +659,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -689,9 +674,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -705,9 +688,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -721,9 +702,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -737,9 +716,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -753,9 +730,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -807,7 +782,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -817,17 +792,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -837,7 +812,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/admin/timesheets/timesheet_template.xlsx
+++ b/admin/timesheets/timesheet_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailesuoo/Downloads/NASA-JPL-Capstone/admin/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6EECE0-9CC3-554C-8403-37F4F986B67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D377233D-CC95-394F-9BE9-2E58069BD236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -569,25 +569,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="10">
-        <v>45970</v>
+        <v>46048</v>
       </c>
       <c r="C5" s="10">
-        <v>45971</v>
+        <v>46049</v>
       </c>
       <c r="D5" s="10">
-        <v>45972</v>
+        <v>46050</v>
       </c>
       <c r="E5" s="10">
-        <v>45973</v>
+        <v>46051</v>
       </c>
       <c r="F5" s="10">
-        <v>45974</v>
+        <v>46052</v>
       </c>
       <c r="G5" s="10">
-        <v>45975</v>
+        <v>46053</v>
       </c>
       <c r="H5" s="11">
-        <v>45976</v>
+        <v>46054</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>5</v>

--- a/admin/timesheets/timesheet_template.xlsx
+++ b/admin/timesheets/timesheet_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kailesuoo/Downloads/NASA-JPL-Capstone/admin/timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D377233D-CC95-394F-9BE9-2E58069BD236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74E13C5-82A2-E147-B15D-F4F20EAB7028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -569,25 +569,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="10">
-        <v>46048</v>
+        <v>46069</v>
       </c>
       <c r="C5" s="10">
-        <v>46049</v>
+        <v>46070</v>
       </c>
       <c r="D5" s="10">
-        <v>46050</v>
+        <v>46071</v>
       </c>
       <c r="E5" s="10">
-        <v>46051</v>
+        <v>46072</v>
       </c>
       <c r="F5" s="10">
-        <v>46052</v>
+        <v>46073</v>
       </c>
       <c r="G5" s="10">
-        <v>46053</v>
+        <v>46074</v>
       </c>
       <c r="H5" s="11">
-        <v>46054</v>
+        <v>46075</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>5</v>
